--- a/data/trans_orig/P14A28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA26151-8687-48CD-B910-658FDF2668C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657B6745-84DF-4ECC-8DD1-C3A68E99EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1524C83E-A53D-4394-92A0-F16781799759}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96BDE083-8B08-4918-9681-8554C62F5EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="310">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>92,69%</t>
   </si>
   <si>
-    <t>63,83%</t>
+    <t>61,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,304 +93,316 @@
     <t>97,86%</t>
   </si>
   <si>
-    <t>89,26%</t>
+    <t>89,1%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>52,08%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -399,109 +411,109 @@
     <t>84,84%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -513,145 +525,145 @@
     <t>68,62%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>80,52%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>19,48%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>62,7%</t>
+    <t>57,28%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>77,58%</t>
+    <t>78,23%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>37,3%</t>
+    <t>42,72%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>81,6%</t>
@@ -666,19 +678,19 @@
     <t>85,25%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>18,4%</t>
@@ -693,19 +705,19 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -714,13 +726,13 @@
     <t>90,13%</t>
   </si>
   <si>
-    <t>70,22%</t>
+    <t>69,37%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>76,76%</t>
+    <t>77,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -732,229 +744,229 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>29,78%</t>
+    <t>30,63%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>23,24%</t>
+    <t>22,75%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>76,49%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDDCF7-121A-4538-8D72-730FCBD905D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15652C9D-A8CF-4E08-93B4-8E0D4B7F86D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,13 +1809,13 @@
         <v>42715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -1812,13 +1824,13 @@
         <v>59948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1845,13 @@
         <v>6016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1848,13 +1860,13 @@
         <v>5672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1863,13 +1875,13 @@
         <v>11688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,7 +1937,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1937,13 +1949,13 @@
         <v>24546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -1952,13 +1964,13 @@
         <v>58334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -1967,13 +1979,13 @@
         <v>82880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +2000,13 @@
         <v>4644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2003,13 +2015,13 @@
         <v>9543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2018,13 +2030,13 @@
         <v>14187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,7 +2092,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2092,10 +2104,10 @@
         <v>9945</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2107,13 +2119,13 @@
         <v>29476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2122,13 +2134,13 @@
         <v>39421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2155,13 @@
         <v>1134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2158,13 +2170,13 @@
         <v>4945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2173,13 +2185,13 @@
         <v>6079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,7 +2247,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2247,13 +2259,13 @@
         <v>20836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2262,13 +2274,13 @@
         <v>42592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2277,13 +2289,13 @@
         <v>63428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2310,13 @@
         <v>10238</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2313,13 +2325,13 @@
         <v>14342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2328,13 +2340,13 @@
         <v>24580</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2402,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2402,13 +2414,13 @@
         <v>24625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -2417,13 +2429,13 @@
         <v>77900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2432,13 +2444,13 @@
         <v>102526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2465,13 @@
         <v>13582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -2468,13 +2480,13 @@
         <v>29781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -2483,13 +2495,13 @@
         <v>43363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2557,13 +2569,13 @@
         <v>22707</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2572,13 +2584,13 @@
         <v>70053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -2587,13 +2599,13 @@
         <v>92760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2620,13 @@
         <v>4056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2623,13 +2635,13 @@
         <v>3198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2638,13 +2650,13 @@
         <v>7254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2724,13 @@
         <v>133348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>341</v>
@@ -2727,13 +2739,13 @@
         <v>369200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>462</v>
@@ -2742,13 +2754,13 @@
         <v>502547</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2775,13 @@
         <v>40731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -2778,13 +2790,13 @@
         <v>68536</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -2793,13 +2805,13 @@
         <v>109268</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F454BC-0137-48A0-82DD-FC6689FB8089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A482620-58D1-4E55-B7BF-C273663327CF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2896,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3003,13 +3015,13 @@
         <v>11348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3018,13 +3030,13 @@
         <v>20433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3033,13 +3045,13 @@
         <v>31781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3066,13 @@
         <v>5189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3069,13 +3081,13 @@
         <v>4894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3084,13 +3096,13 @@
         <v>10083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3170,13 @@
         <v>12248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3173,13 +3185,13 @@
         <v>45075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3188,13 +3200,13 @@
         <v>57322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3221,13 @@
         <v>3139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3224,13 +3236,13 @@
         <v>3585</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3239,13 +3251,13 @@
         <v>6724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,10 +3325,10 @@
         <v>10644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3328,10 +3340,10 @@
         <v>25281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3343,13 +3355,13 @@
         <v>35925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3376,13 @@
         <v>1660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3379,13 +3391,13 @@
         <v>1050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3394,13 +3406,13 @@
         <v>2710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3468,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3468,13 +3480,13 @@
         <v>12619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3483,13 +3495,13 @@
         <v>42647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3498,13 +3510,13 @@
         <v>55266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3531,13 @@
         <v>2845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3534,13 +3546,13 @@
         <v>7377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3549,13 +3561,13 @@
         <v>10222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3626,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>28</v>
@@ -3638,10 +3650,10 @@
         <v>19240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3653,10 +3665,10 @@
         <v>25484</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3677,10 +3689,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3689,13 +3701,13 @@
         <v>2106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3704,13 +3716,13 @@
         <v>2106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3778,13 +3790,13 @@
         <v>6375</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3793,13 +3805,13 @@
         <v>29609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3808,13 +3820,13 @@
         <v>35984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3841,13 @@
         <v>4986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3844,13 +3856,13 @@
         <v>6073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3859,13 +3871,13 @@
         <v>11059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3933,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3933,13 +3945,13 @@
         <v>14932</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3948,13 +3960,13 @@
         <v>36192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -3963,13 +3975,13 @@
         <v>51124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3996,13 @@
         <v>9025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3999,13 +4011,13 @@
         <v>19162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4014,13 +4026,13 @@
         <v>28187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4088,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4088,13 +4100,13 @@
         <v>14234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4103,13 +4115,13 @@
         <v>58217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4118,13 +4130,13 @@
         <v>72451</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4151,13 @@
         <v>6457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4154,13 +4166,13 @@
         <v>11142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4169,13 +4181,13 @@
         <v>17599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4255,13 @@
         <v>88644</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
@@ -4258,13 +4270,13 @@
         <v>276695</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -4273,13 +4285,13 @@
         <v>365338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4306,13 @@
         <v>33301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -4309,13 +4321,13 @@
         <v>55388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M29" s="7">
         <v>80</v>
@@ -4324,13 +4336,13 @@
         <v>88690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4398,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657B6745-84DF-4ECC-8DD1-C3A68E99EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D7DA86-EC42-4B39-8596-9F30CAA193D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96BDE083-8B08-4918-9681-8554C62F5EF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05F8B874-F57D-4D92-9224-C5C03C05C04D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="306">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>92,69%</t>
   </si>
   <si>
-    <t>61,08%</t>
+    <t>61,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,13 +93,13 @@
     <t>97,86%</t>
   </si>
   <si>
-    <t>89,1%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>7,31%</t>
@@ -108,19 +108,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,92%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,9%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,55 +132,55 @@
     <t>74,13%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -189,55 +189,55 @@
     <t>84,09%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -252,19 +252,19 @@
     <t>85,63%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>10,23%</t>
@@ -276,19 +276,19 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -297,55 +297,55 @@
     <t>67,05%</t>
   </si>
   <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>72,07%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -354,55 +354,55 @@
     <t>64,45%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -411,313 +411,301 @@
     <t>84,84%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>67,14%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>32,86%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por artritis en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>43,08%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>79,04%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>20,96%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>63,33%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>78,23%</t>
+    <t>79,54%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>36,67%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>20,46%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>81,6%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -726,13 +714,13 @@
     <t>90,13%</t>
   </si>
   <si>
-    <t>69,37%</t>
+    <t>70,12%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>77,25%</t>
+    <t>75,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -744,229 +732,229 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>30,63%</t>
+    <t>29,88%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>22,75%</t>
+    <t>24,31%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>76,49%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15652C9D-A8CF-4E08-93B4-8E0D4B7F86D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9704A474-819F-4147-93A3-529781846115}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2575,7 +2563,7 @@
         <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2584,13 +2572,13 @@
         <v>70053</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -2599,13 +2587,13 @@
         <v>92760</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2608,13 @@
         <v>4056</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2635,13 +2623,13 @@
         <v>3198</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2650,13 +2638,13 @@
         <v>7254</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2712,13 @@
         <v>133348</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>341</v>
@@ -2739,13 +2727,13 @@
         <v>369200</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>462</v>
@@ -2754,13 +2742,13 @@
         <v>502547</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2763,13 @@
         <v>40731</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -2790,13 +2778,13 @@
         <v>68536</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -2805,13 +2793,13 @@
         <v>109268</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2855,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A482620-58D1-4E55-B7BF-C273663327CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDF22BE-6E56-4C1D-A999-190AFF7F294F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2908,7 +2896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3015,13 +3003,13 @@
         <v>11348</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3030,13 +3018,13 @@
         <v>20433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3045,13 +3033,13 @@
         <v>31781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3054,13 @@
         <v>5189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3081,13 +3069,13 @@
         <v>4894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3096,13 +3084,13 @@
         <v>10083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3158,13 @@
         <v>12248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3185,13 +3173,13 @@
         <v>45075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3200,13 +3188,13 @@
         <v>57322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3209,13 @@
         <v>3139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3236,13 +3224,13 @@
         <v>3585</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3251,13 +3239,13 @@
         <v>6724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,10 +3313,10 @@
         <v>10644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3340,10 +3328,10 @@
         <v>25281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3355,13 +3343,13 @@
         <v>35925</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3364,13 @@
         <v>1660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3391,13 +3379,13 @@
         <v>1050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3406,13 +3394,13 @@
         <v>2710</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3468,13 @@
         <v>12619</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3495,13 +3483,13 @@
         <v>42647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3510,13 +3498,13 @@
         <v>55266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3519,13 @@
         <v>2845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3546,13 +3534,13 @@
         <v>7377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3561,13 +3549,13 @@
         <v>10222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3626,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>28</v>
@@ -3650,10 +3638,10 @@
         <v>19240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3665,10 +3653,10 @@
         <v>25484</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3689,10 +3677,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3701,13 +3689,13 @@
         <v>2106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3716,13 +3704,13 @@
         <v>2106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3778,13 @@
         <v>6375</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3805,13 +3793,13 @@
         <v>29609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3820,13 +3808,13 @@
         <v>35984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3829,13 @@
         <v>4986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3856,13 +3844,13 @@
         <v>6073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3871,13 +3859,13 @@
         <v>11059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3933,13 @@
         <v>14932</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3960,13 +3948,13 @@
         <v>36192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -3975,13 +3963,13 @@
         <v>51124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3984,13 @@
         <v>9025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -4011,13 +3999,13 @@
         <v>19162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4026,13 +4014,13 @@
         <v>28187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4088,13 @@
         <v>14234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4115,13 +4103,13 @@
         <v>58217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4130,13 +4118,13 @@
         <v>72451</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4139,13 @@
         <v>6457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4166,13 +4154,13 @@
         <v>11142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4181,13 +4169,13 @@
         <v>17599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4243,13 @@
         <v>88644</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
@@ -4270,13 +4258,13 @@
         <v>276695</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -4285,13 +4273,13 @@
         <v>365338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4294,13 @@
         <v>33301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -4321,13 +4309,13 @@
         <v>55388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>80</v>
@@ -4336,13 +4324,13 @@
         <v>88690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4386,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
